--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lty\Documents\GitHub\govSiteWatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6F112-1E1A-4BD2-9C63-B246015AD60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E8271-7CEC-43E3-A95E-0C6F96A047B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>栏目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,108 @@
   </si>
   <si>
     <t>父id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开年报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依申请公开目录</t>
+  </si>
+  <si>
+    <t>政策法规</t>
+  </si>
+  <si>
+    <t>重大决策预公开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策部署落实情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议提案办理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构领导</t>
+  </si>
+  <si>
+    <t>机构设置</t>
+  </si>
+  <si>
+    <t>财政资金-年度财政预决算及“三公”经费情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政资金-财政专项资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政资金-部门项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权责清单和动态调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共服务清单和中介服务清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“双随机一公开”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政权力运行-行政职权目录总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政权力运行-行政权力运行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政权力运行-行政许可和行政处罚双公示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政权力运行-行政执法公示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻发布</t>
+  </si>
+  <si>
+    <t>上级政策解读</t>
+  </si>
+  <si>
+    <t>本级政策解读</t>
+  </si>
+  <si>
+    <t>回应关切</t>
+  </si>
+  <si>
+    <t>监督保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准脱贫</t>
+  </si>
+  <si>
+    <t>网站年度报表</t>
+  </si>
+  <si>
+    <t>依申请公开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,12 +464,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -395,6 +503,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -678,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,32 +1310,325 @@
         <v>5444262</v>
       </c>
     </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1">
+        <v>180</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2667882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1">
+        <v>180</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8550430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>161734542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5351999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1">
+        <v>180</v>
+      </c>
+      <c r="H32" s="1">
+        <v>170072079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="1">
+        <v>365</v>
+      </c>
+      <c r="H33" s="1">
+        <v>161734757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="1">
+        <v>365</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2667871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1">
+        <v>180</v>
+      </c>
+      <c r="H35" s="1">
+        <v>161731869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="1">
+        <v>180</v>
+      </c>
+      <c r="H36" s="1">
+        <v>161732075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1">
+        <v>365</v>
+      </c>
+      <c r="H37" s="1">
+        <v>161733536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1">
+        <v>180</v>
+      </c>
+      <c r="H38" s="1">
+        <v>161735039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1">
+        <v>365</v>
+      </c>
+      <c r="H39" s="1">
+        <v>161732374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="1">
+        <v>365</v>
+      </c>
+      <c r="H40" s="1">
+        <v>161732916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="1">
+        <v>180</v>
+      </c>
+      <c r="H41" s="1">
+        <v>161735369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1">
+        <v>365</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2667885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1">
+        <v>365</v>
+      </c>
+      <c r="H43" s="1">
+        <v>161732545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1">
+        <v>80</v>
+      </c>
+      <c r="H44" s="1">
+        <v>161732601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="1">
+        <v>365</v>
+      </c>
+      <c r="H45" s="1">
+        <v>161732614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="1">
+        <v>180</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2667905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="1">
+        <v>180</v>
+      </c>
+      <c r="H47" s="1">
+        <v>161733802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="1">
+        <v>180</v>
+      </c>
+      <c r="H48" s="1">
+        <v>161733868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="1">
+        <v>180</v>
+      </c>
+      <c r="H49" s="1">
+        <v>161734163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="1">
+        <v>180</v>
+      </c>
+      <c r="H50" s="1">
+        <v>161734264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="1">
+        <v>180</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5350442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1">
+        <v>365</v>
+      </c>
+      <c r="H52" s="1">
+        <v>119361791</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EDC9DE79-A80B-4AEF-A7D6-5EC5B2CF7067}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{F5E8F300-E2E7-4B14-8B32-0493705C82D7}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{036BF734-F6A7-4511-8E20-661CB7AFD79C}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{1033E2FA-9E7E-4F16-8E33-90527C61C175}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{1DFB5A02-4C93-4724-A843-D754C78318B5}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{8414A450-2C98-4D71-A65E-D9A9295AD33B}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{8415D668-CFD0-441E-AB46-773E8A32B59D}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{88B5AF9B-EEF1-4446-9D96-C3584C4CCE51}"/>
-    <hyperlink ref="B2" r:id="rId9" xr:uid="{2A9DDFAE-4F8E-4CAF-B3D0-D5105C8310F3}"/>
-    <hyperlink ref="B12:B13" r:id="rId10" display="https://czj.chuzhou.gov.cn/ztzl/index.html" xr:uid="{60BE994F-1936-439C-AFB1-E416EAC6F9F6}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{9471CAE3-E2C8-4252-9B60-1D6482CF644D}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{CB99633C-64B9-42E7-93DF-D725446F1B27}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{CB93D6EB-67D2-4132-B5D1-F5E462F8B394}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{02435B93-0482-46B9-97A7-5799939459EE}"/>
+    <hyperlink ref="B22" r:id="rId4" xr:uid="{FA036951-7BE4-4245-945D-FFE51B6FA327}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{BFB64315-C74C-4F1E-8170-73DE08294B27}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{F27D43AF-8801-4CF1-A44B-0040C9569D50}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{4EDFA8DC-1222-4EDF-B4B9-CF4BEC9A6A12}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{5F7821E0-FC52-45F0-9F64-02107B00E902}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{F786624C-A587-4D9E-8D08-01507A337305}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{5B867CBE-29B1-4C3C-94AA-DD17CED2B040}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{9A95DF01-3656-4CD2-92F2-12E96D27F4E8}"/>
     <hyperlink ref="B15" r:id="rId12" xr:uid="{95856828-C433-47B3-80F8-562B4C75CD95}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{9A95DF01-3656-4CD2-92F2-12E96D27F4E8}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{5B867CBE-29B1-4C3C-94AA-DD17CED2B040}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{F786624C-A587-4D9E-8D08-01507A337305}"/>
-    <hyperlink ref="B6" r:id="rId16" xr:uid="{5F7821E0-FC52-45F0-9F64-02107B00E902}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{4EDFA8DC-1222-4EDF-B4B9-CF4BEC9A6A12}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{F27D43AF-8801-4CF1-A44B-0040C9569D50}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{BFB64315-C74C-4F1E-8170-73DE08294B27}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{FA036951-7BE4-4245-945D-FFE51B6FA327}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{02435B93-0482-46B9-97A7-5799939459EE}"/>
-    <hyperlink ref="G8" r:id="rId22" xr:uid="{CB99633C-64B9-42E7-93DF-D725446F1B27}"/>
-    <hyperlink ref="G15" r:id="rId23" xr:uid="{CB93D6EB-67D2-4132-B5D1-F5E462F8B394}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{9471CAE3-E2C8-4252-9B60-1D6482CF644D}"/>
+    <hyperlink ref="B12:B13" r:id="rId14" display="https://czj.chuzhou.gov.cn/ztzl/index.html" xr:uid="{60BE994F-1936-439C-AFB1-E416EAC6F9F6}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{2A9DDFAE-4F8E-4CAF-B3D0-D5105C8310F3}"/>
+    <hyperlink ref="B11" r:id="rId16" xr:uid="{88B5AF9B-EEF1-4446-9D96-C3584C4CCE51}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{8415D668-CFD0-441E-AB46-773E8A32B59D}"/>
+    <hyperlink ref="B9" r:id="rId18" xr:uid="{8414A450-2C98-4D71-A65E-D9A9295AD33B}"/>
+    <hyperlink ref="B8" r:id="rId19" xr:uid="{1DFB5A02-4C93-4724-A843-D754C78318B5}"/>
+    <hyperlink ref="B7" r:id="rId20" xr:uid="{1033E2FA-9E7E-4F16-8E33-90527C61C175}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{036BF734-F6A7-4511-8E20-661CB7AFD79C}"/>
+    <hyperlink ref="B4" r:id="rId22" xr:uid="{F5E8F300-E2E7-4B14-8B32-0493705C82D7}"/>
+    <hyperlink ref="B3" r:id="rId23" xr:uid="{EDC9DE79-A80B-4AEF-A7D6-5EC5B2CF7067}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
